--- a/链接信息_2023_0830.xlsx
+++ b/链接信息_2023_0830.xlsx
@@ -10,12 +10,12 @@
     <sheet name="rpc主网" sheetId="1" r:id="rId1"/>
     <sheet name="rpc测试网" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>区块链名</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -89,6 +89,13 @@
   </si>
   <si>
     <t>https://autumn-serene-panorama.bsc-testnet.quiknode.pro/ba370aa351ded8f5a7c3dc0bbb2f32c3cdf5ec41/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>https://wild-thrumming-wind.nova-mainnet.quiknode.pro/0a5f3c6f71bdda4dd165cdf35cb7e3e0af5d142f/</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1105,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1192,6 +1199,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -1203,6 +1221,7 @@
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="C6" r:id="rId4"/>
     <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1214,7 +1233,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
